--- a/画面項目定義/サーチ画面項目定義.xlsx
+++ b/画面項目定義/サーチ画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A26A13-C376-4116-A77E-E3BE45ECDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61852874-C6B8-4902-9B6B-83D2A1282B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F1403CB-34E2-4470-BE4D-E9E475C902BE}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{6F1403CB-34E2-4470-BE4D-E9E475C902BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,31 +80,6 @@
     <t>メインページに戻るボタン</t>
   </si>
   <si>
-    <r>
-      <t>メインページ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>main.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>地域選択</t>
   </si>
   <si>
@@ -236,6 +211,13 @@
       </rPr>
       <t>) に遷移</t>
     </r>
+  </si>
+  <si>
+    <t>ホーム画面 に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -642,13 +624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84228837-AC1A-40FA-8656-04B42495D515}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="52.9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -688,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72">
+    <row r="3" spans="1:6" ht="70.5">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -705,187 +687,187 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="105.75">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="108">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="105.75">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="108">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="105.75">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="108">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105.75">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="108">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="108">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105.75">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="70.5">
       <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="70.5">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="72">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="88.15">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="158.65">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="162">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/画面項目定義/サーチ画面項目定義.xlsx
+++ b/画面項目定義/サーチ画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61852874-C6B8-4902-9B6B-83D2A1282B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2400A0-F2F5-4E4F-AE33-991E26167DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{6F1403CB-34E2-4470-BE4D-E9E475C902BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{6F1403CB-34E2-4470-BE4D-E9E475C902BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,43 +188,28 @@
     <t>全ての入力項目が正しく入力されているか</t>
   </si>
   <si>
-    <r>
-      <t>入力条件を元に検索処理を行い、検索結果ページ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>hotel_list.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) に遷移</t>
-    </r>
-  </si>
-  <si>
-    <t>ホーム画面 に遷移</t>
+    <t>ホテル検索選択画面に遷移</t>
     <rPh sb="3" eb="5">
-      <t>ガメン</t>
+      <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <rPh sb="5" eb="9">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会員のマイページに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,12 +226,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -624,13 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84228837-AC1A-40FA-8656-04B42495D515}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -670,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="70.5">
+    <row r="3" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -690,7 +669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105.75">
+    <row r="4" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -710,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105.75">
+    <row r="5" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -730,7 +709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105.75">
+    <row r="6" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -750,7 +729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="105.75">
+    <row r="7" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -770,7 +749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="105.75">
+    <row r="8" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -790,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="70.5">
+    <row r="9" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -810,7 +789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="70.5">
+    <row r="10" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -830,7 +809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="88.15">
+    <row r="11" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -850,7 +829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="158.65">
+    <row r="12" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -871,7 +850,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>